--- a/Table_S10.xlsx
+++ b/Table_S10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoé\Desktop\Frontiers Ribeyre et al\Tableaux supplémentaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoé\Desktop\Frontiers Ribeyre et al\Review\Fichiers révisés par collaborateurs\Fichiers à resoumettre\Tableaux supplémentaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFCA13C-EAC4-4705-BD8F-00ADBEAB6BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F199A9FA-621B-46AD-9E41-83E566796582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="19380" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caption" sheetId="1" r:id="rId1"/>
@@ -1247,34 +1247,40 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2758,7 +2764,7 @@
   <dimension ref="A1:M979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Table_S10.xlsx
+++ b/Table_S10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoé\Desktop\Frontiers Ribeyre et al\Review\Fichiers révisés par collaborateurs\Fichiers à resoumettre\Tableaux supplémentaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoé\Desktop\BMC Plant physiology\Préparation soumission\Tableaux supplémentaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F199A9FA-621B-46AD-9E41-83E566796582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DF3017-DB83-4790-B5F2-F7CC0E5401F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="380" windowWidth="19380" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caption" sheetId="1" r:id="rId1"/>
@@ -1448,45 +1448,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2057400" cy="723900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1687,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C990"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView zoomScale="82" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2755,7 +2716,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2763,7 +2723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M979"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
